--- a/Code/Results/Cases/Case_4_121/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_121/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.91184615107766</v>
+        <v>12.30925152266897</v>
       </c>
       <c r="C2">
-        <v>6.538738037100401</v>
+        <v>4.619119882430722</v>
       </c>
       <c r="D2">
-        <v>10.82961704331131</v>
+        <v>14.70376576710663</v>
       </c>
       <c r="E2">
-        <v>10.81707743525667</v>
+        <v>15.85073642682584</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.118776469512145</v>
+        <v>3.697375012375164</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.340114641342766</v>
+        <v>9.256101217402774</v>
       </c>
       <c r="K2">
-        <v>11.12564895800447</v>
+        <v>11.80808497689487</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.63901321914831</v>
+        <v>17.66885209425302</v>
       </c>
       <c r="N2">
-        <v>13.9976092324295</v>
+        <v>21.56895207622065</v>
       </c>
       <c r="O2">
-        <v>20.34037144662172</v>
+        <v>30.31591179523271</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.06141374540544</v>
+        <v>12.11863447757177</v>
       </c>
       <c r="C3">
-        <v>6.132783024939696</v>
+        <v>4.484124296070935</v>
       </c>
       <c r="D3">
-        <v>10.48365757905097</v>
+        <v>14.67842918646962</v>
       </c>
       <c r="E3">
-        <v>10.57228181158112</v>
+        <v>15.8492640051754</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.124401348866339</v>
+        <v>3.699502997551511</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.35179253490856</v>
+        <v>9.273057767558052</v>
       </c>
       <c r="K3">
-        <v>10.39785176263137</v>
+        <v>11.68935476586168</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.18232255787335</v>
+        <v>17.62830702185967</v>
       </c>
       <c r="N3">
-        <v>14.21072662066714</v>
+        <v>21.63184264429387</v>
       </c>
       <c r="O3">
-        <v>20.24018371573164</v>
+        <v>30.37704646167532</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.55370229629573</v>
+        <v>12.00289882713732</v>
       </c>
       <c r="C4">
-        <v>5.870014750317938</v>
+        <v>4.399996697996782</v>
       </c>
       <c r="D4">
-        <v>10.2721238507305</v>
+        <v>14.66579340310728</v>
       </c>
       <c r="E4">
-        <v>10.42566020621796</v>
+        <v>15.85120568102731</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.12796251647124</v>
+        <v>3.700879367240625</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.360796404521168</v>
+        <v>9.28434674678571</v>
       </c>
       <c r="K4">
-        <v>9.925752204704365</v>
+        <v>11.61824732604389</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.89956725367256</v>
+        <v>17.60649692742561</v>
       </c>
       <c r="N4">
-        <v>14.34471685772949</v>
+        <v>21.67230300085211</v>
       </c>
       <c r="O4">
-        <v>20.19293508105037</v>
+        <v>30.42009072201669</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.3413929149922</v>
+        <v>11.95612569838595</v>
       </c>
       <c r="C5">
-        <v>5.759540077038917</v>
+        <v>4.365456884039327</v>
       </c>
       <c r="D5">
-        <v>10.18626268016584</v>
+        <v>14.66138268825014</v>
       </c>
       <c r="E5">
-        <v>10.36689331396319</v>
+        <v>15.85271370438966</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.129441413454908</v>
+        <v>3.701457851525846</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.364917840609664</v>
+        <v>9.289168109384196</v>
       </c>
       <c r="K5">
-        <v>9.72699727440426</v>
+        <v>11.5897518735747</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.78391976470526</v>
+        <v>17.59839145430606</v>
       </c>
       <c r="N5">
-        <v>14.40012678031756</v>
+        <v>21.68925618174426</v>
       </c>
       <c r="O5">
-        <v>20.1771597272571</v>
+        <v>30.4390146259516</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.30581669453787</v>
+        <v>11.94838442823603</v>
       </c>
       <c r="C6">
-        <v>5.740991036779797</v>
+        <v>4.359707707205783</v>
       </c>
       <c r="D6">
-        <v>10.17202962390848</v>
+        <v>14.66069499862347</v>
       </c>
       <c r="E6">
-        <v>10.35719608651084</v>
+        <v>15.85300743043429</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.129688674704357</v>
+        <v>3.701554973198578</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.365629267097435</v>
+        <v>9.289982051361331</v>
       </c>
       <c r="K6">
-        <v>9.693608732794196</v>
+        <v>11.58505017303692</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.76469625171067</v>
+        <v>17.59709297791229</v>
       </c>
       <c r="N6">
-        <v>14.40937690315512</v>
+        <v>21.69209938151137</v>
       </c>
       <c r="O6">
-        <v>20.1747471117891</v>
+        <v>30.44224039895174</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.55086073603406</v>
+        <v>12.00226636695273</v>
       </c>
       <c r="C7">
-        <v>5.868538585872799</v>
+        <v>4.399531848422387</v>
       </c>
       <c r="D7">
-        <v>10.27096435807967</v>
+        <v>14.66573092381919</v>
       </c>
       <c r="E7">
-        <v>10.42486360319803</v>
+        <v>15.85122311522879</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.127982348404867</v>
+        <v>3.700887097535752</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.360850167764653</v>
+        <v>9.28441087405602</v>
       </c>
       <c r="K7">
-        <v>9.923097551677753</v>
+        <v>11.61786103766707</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.89800906953457</v>
+        <v>17.60638443832808</v>
       </c>
       <c r="N7">
-        <v>14.3454608392058</v>
+        <v>21.67252975193312</v>
       </c>
       <c r="O7">
-        <v>20.19270838946392</v>
+        <v>30.4203403392287</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.61212928548226</v>
+        <v>12.24329348109437</v>
       </c>
       <c r="C8">
-        <v>6.401568464946808</v>
+        <v>4.572862398599169</v>
       </c>
       <c r="D8">
-        <v>10.71021453919205</v>
+        <v>14.69442601375887</v>
       </c>
       <c r="E8">
-        <v>10.73194121627578</v>
+        <v>15.84963890352749</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.120694035033706</v>
+        <v>3.698094293062584</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.343755242911655</v>
+        <v>9.261765894070566</v>
       </c>
       <c r="K8">
-        <v>10.87992327728779</v>
+        <v>11.76679310947331</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.48212878259591</v>
+        <v>17.65423608231443</v>
       </c>
       <c r="N8">
-        <v>14.07045326282327</v>
+        <v>21.59025450491248</v>
       </c>
       <c r="O8">
-        <v>20.30280124534556</v>
+        <v>30.33584692831791</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.65643055800289</v>
+        <v>12.72356273041073</v>
       </c>
       <c r="C9">
-        <v>7.339845178149446</v>
+        <v>4.900708598538513</v>
       </c>
       <c r="D9">
-        <v>11.57385766673021</v>
+        <v>14.77367523751295</v>
       </c>
       <c r="E9">
-        <v>11.36089440665354</v>
+        <v>15.86904826220406</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.107222450882453</v>
+        <v>3.693168708916029</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.325190806194465</v>
+        <v>9.224307603218424</v>
       </c>
       <c r="K9">
-        <v>12.55752421233851</v>
+        <v>12.07170246644606</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.60243259883667</v>
+        <v>17.77223100685065</v>
       </c>
       <c r="N9">
-        <v>13.55512877119295</v>
+        <v>21.44349684025075</v>
       </c>
       <c r="O9">
-        <v>20.63658408347865</v>
+        <v>30.2139303296796</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.01155289242314</v>
+        <v>13.07744209027509</v>
       </c>
       <c r="C10">
-        <v>7.964643908066547</v>
+        <v>5.13152496649493</v>
       </c>
       <c r="D10">
-        <v>12.20408066982939</v>
+        <v>14.84560699936539</v>
       </c>
       <c r="E10">
-        <v>11.83616336136182</v>
+        <v>15.89693206832682</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.097778022016451</v>
+        <v>3.689882261876185</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.321260782011255</v>
+        <v>9.201002854024679</v>
       </c>
       <c r="K10">
-        <v>13.67122717025743</v>
+        <v>12.30167349613993</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.4026299064336</v>
+        <v>17.87318509577864</v>
       </c>
       <c r="N10">
-        <v>13.18981209215757</v>
+        <v>21.34448245098642</v>
       </c>
       <c r="O10">
-        <v>20.95985537025554</v>
+        <v>30.15114015257484</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.59694759333235</v>
+        <v>13.23791015090705</v>
       </c>
       <c r="C11">
-        <v>8.235098308254974</v>
+        <v>5.23385188481134</v>
       </c>
       <c r="D11">
-        <v>12.48886910983099</v>
+        <v>14.88123116317996</v>
       </c>
       <c r="E11">
-        <v>12.05463667840175</v>
+        <v>15.91254674226701</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.09356873267963</v>
+        <v>3.688458582920821</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.321716836174568</v>
+        <v>9.191312080657237</v>
       </c>
       <c r="K11">
-        <v>14.15265381517717</v>
+        <v>12.40718018792387</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.76043842029171</v>
+        <v>17.92209737746112</v>
       </c>
       <c r="N11">
-        <v>13.02620912794487</v>
+        <v>21.30133341493071</v>
       </c>
       <c r="O11">
-        <v>21.12511680263578</v>
+        <v>30.12840686207031</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.81422297589509</v>
+        <v>13.2985417638724</v>
       </c>
       <c r="C12">
-        <v>8.335555806243802</v>
+        <v>5.27218000228672</v>
       </c>
       <c r="D12">
-        <v>12.59637076394236</v>
+        <v>14.89513108272256</v>
       </c>
       <c r="E12">
-        <v>12.13764934077065</v>
+        <v>15.91887793106461</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.09198631340087</v>
+        <v>3.687929673850359</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.322224012650034</v>
+        <v>9.187773050854945</v>
       </c>
       <c r="K12">
-        <v>14.33138454154962</v>
+        <v>12.44722704719889</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.89495683187856</v>
+        <v>17.94103844145323</v>
       </c>
       <c r="N12">
-        <v>12.96460342634335</v>
+        <v>21.28526494565989</v>
       </c>
       <c r="O12">
-        <v>21.1904124571798</v>
+        <v>30.12063762340724</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.767623496248</v>
+        <v>13.2854905644211</v>
       </c>
       <c r="C13">
-        <v>8.314007164123376</v>
+        <v>5.263944617832216</v>
       </c>
       <c r="D13">
-        <v>12.57323450154994</v>
+        <v>14.8921193843255</v>
       </c>
       <c r="E13">
-        <v>12.11975920903655</v>
+        <v>15.91749584760573</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.092326618271429</v>
+        <v>3.688043130730507</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.3220997126778</v>
+        <v>9.18852943805409</v>
       </c>
       <c r="K13">
-        <v>14.29304986680222</v>
+        <v>12.43859861471685</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.86603044606866</v>
+        <v>17.93694068176374</v>
       </c>
       <c r="N13">
-        <v>12.97785626428746</v>
+        <v>21.28871353649425</v>
       </c>
       <c r="O13">
-        <v>21.17622760914539</v>
+        <v>30.12227352414654</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.6149107865089</v>
+        <v>13.24290137647485</v>
       </c>
       <c r="C14">
-        <v>8.243402102379692</v>
+        <v>5.237013793287423</v>
       </c>
       <c r="D14">
-        <v>12.49772052647931</v>
+        <v>14.88236654927686</v>
       </c>
       <c r="E14">
-        <v>12.06146077383403</v>
+        <v>15.91305924963395</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.093438320452065</v>
+        <v>3.688414864979244</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.321751788671657</v>
+        <v>9.191018305721203</v>
       </c>
       <c r="K14">
-        <v>14.16742945654554</v>
+        <v>12.41047318426135</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.77152531029052</v>
+        <v>17.92364733453224</v>
       </c>
       <c r="N14">
-        <v>13.02113397141915</v>
+        <v>21.3000060245677</v>
       </c>
       <c r="O14">
-        <v>21.13043376010528</v>
+        <v>30.12775085532056</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.52079870037096</v>
+        <v>13.2167950455201</v>
       </c>
       <c r="C15">
-        <v>8.19990023305404</v>
+        <v>5.220462054031102</v>
       </c>
       <c r="D15">
-        <v>12.45141974873003</v>
+        <v>14.87644579572056</v>
       </c>
       <c r="E15">
-        <v>12.0257867315298</v>
+        <v>15.91039607575967</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.094120744065879</v>
+        <v>3.688643890699238</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.321582594820167</v>
+        <v>9.192559815400879</v>
       </c>
       <c r="K15">
-        <v>14.09001925977167</v>
+        <v>12.39325673923748</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.71350889234944</v>
+        <v>17.91555902376377</v>
       </c>
       <c r="N15">
-        <v>13.04768730748617</v>
+        <v>21.30695827707243</v>
       </c>
       <c r="O15">
-        <v>21.10274008593413</v>
+        <v>30.13121521355064</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.97267651908865</v>
+        <v>13.06693958616639</v>
       </c>
       <c r="C16">
-        <v>7.94669382761195</v>
+        <v>5.124780674130807</v>
       </c>
       <c r="D16">
-        <v>12.18542470159824</v>
+        <v>14.84333664519083</v>
       </c>
       <c r="E16">
-        <v>11.82192733482269</v>
+        <v>15.8959703178593</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.09805477903835</v>
+        <v>3.689976733806937</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.321277126714969</v>
+        <v>9.201654468492604</v>
       </c>
       <c r="K16">
-        <v>13.63926177531257</v>
+        <v>12.29479337712617</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.37911389156186</v>
+        <v>17.87004779173128</v>
       </c>
       <c r="N16">
-        <v>13.20055383737179</v>
+        <v>21.34734034243642</v>
       </c>
       <c r="O16">
-        <v>20.94942980422086</v>
+        <v>30.15274323615696</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.62851221066051</v>
+        <v>12.97483299972503</v>
       </c>
       <c r="C17">
-        <v>7.787847957691355</v>
+        <v>5.065371555219518</v>
       </c>
       <c r="D17">
-        <v>12.02170580075042</v>
+        <v>14.82376338074251</v>
       </c>
       <c r="E17">
-        <v>11.69741402909699</v>
+        <v>15.88786897367999</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.100489804709143</v>
+        <v>3.690812625451269</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.321672662429624</v>
+        <v>9.207466777347706</v>
       </c>
       <c r="K17">
-        <v>13.35631543702348</v>
+        <v>12.23459308392763</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.17231936508191</v>
+        <v>17.84288600291723</v>
       </c>
       <c r="N17">
-        <v>13.29497678646095</v>
+        <v>21.37259752012362</v>
       </c>
       <c r="O17">
-        <v>20.86011116670265</v>
+        <v>30.16744403205575</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.42763068028605</v>
+        <v>12.92181087922255</v>
       </c>
       <c r="C18">
-        <v>7.695186386210624</v>
+        <v>5.030951389779147</v>
       </c>
       <c r="D18">
-        <v>11.92736318902662</v>
+        <v>14.81277899396481</v>
       </c>
       <c r="E18">
-        <v>11.62601339280889</v>
+        <v>15.8834853061184</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.101898620363337</v>
+        <v>3.691300126353087</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.322110624983221</v>
+        <v>9.210895598501157</v>
       </c>
       <c r="K18">
-        <v>13.19119686336806</v>
+        <v>12.20005345127023</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.0527964944796</v>
+        <v>17.82754515247961</v>
       </c>
       <c r="N18">
-        <v>13.34953082369619</v>
+        <v>21.38730303319569</v>
       </c>
       <c r="O18">
-        <v>20.81044524350862</v>
+        <v>30.17644827169239</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.35911093940064</v>
+        <v>12.90385267160818</v>
       </c>
       <c r="C19">
-        <v>7.663589276903036</v>
+        <v>5.019255615991439</v>
       </c>
       <c r="D19">
-        <v>11.89539246805198</v>
+        <v>14.80910708612159</v>
       </c>
       <c r="E19">
-        <v>11.6018769499608</v>
+        <v>15.88204856583559</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.102377067044981</v>
+        <v>3.691466341210546</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.322294707655901</v>
+        <v>9.212071272532388</v>
       </c>
       <c r="K19">
-        <v>13.13488115327282</v>
+        <v>12.18837474727571</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.0122312832934</v>
+        <v>17.82239973298724</v>
       </c>
       <c r="N19">
-        <v>13.36804458969843</v>
+        <v>21.39231271580586</v>
       </c>
       <c r="O19">
-        <v>20.79391953288696</v>
+        <v>30.17959116355409</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.66545159333676</v>
+        <v>12.98464298873331</v>
       </c>
       <c r="C20">
-        <v>7.804891520311117</v>
+        <v>5.071721867560462</v>
       </c>
       <c r="D20">
-        <v>12.03915268501062</v>
+        <v>14.82581872027248</v>
       </c>
       <c r="E20">
-        <v>11.71064665982573</v>
+        <v>15.88870283087632</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.100229744680196</v>
+        <v>3.690722948431702</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.321608691309034</v>
+        <v>9.206839176068565</v>
       </c>
       <c r="K20">
-        <v>13.38668105118006</v>
+        <v>12.24099285943387</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.19439369423966</v>
+        <v>17.8457483219002</v>
       </c>
       <c r="N20">
-        <v>13.28490017415717</v>
+        <v>21.36989040991349</v>
       </c>
       <c r="O20">
-        <v>20.869441827244</v>
+        <v>30.16582230773517</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.6598851161219</v>
+        <v>13.25541496398582</v>
       </c>
       <c r="C21">
-        <v>8.26419345717845</v>
+        <v>5.244935724671606</v>
       </c>
       <c r="D21">
-        <v>12.51991056185504</v>
+        <v>14.8852201332244</v>
       </c>
       <c r="E21">
-        <v>12.07857712512482</v>
+        <v>15.91435106127001</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.093111481232074</v>
+        <v>3.688305401007684</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.321844807657022</v>
+        <v>9.190283721378142</v>
       </c>
       <c r="K21">
-        <v>14.20442383503307</v>
+        <v>12.41873203333739</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.79931083047179</v>
+        <v>17.92754062722563</v>
       </c>
       <c r="N21">
-        <v>13.00841303168987</v>
+        <v>21.29668179721735</v>
       </c>
       <c r="O21">
-        <v>21.1438100840884</v>
+        <v>30.12611924373964</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.28418559500322</v>
+        <v>13.4315717826439</v>
       </c>
       <c r="C22">
-        <v>8.552975543466145</v>
+        <v>5.355673444530081</v>
       </c>
       <c r="D22">
-        <v>12.83209993893515</v>
+        <v>14.9264273002055</v>
       </c>
       <c r="E22">
-        <v>12.32066562476885</v>
+        <v>15.93354986388006</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.088526091817427</v>
+        <v>3.686784865995851</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.323954633251468</v>
+        <v>9.180225197227944</v>
       </c>
       <c r="K22">
-        <v>14.71805291365067</v>
+        <v>12.53542565945692</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.18894349495079</v>
+        <v>17.98343384674026</v>
       </c>
       <c r="N22">
-        <v>12.82972480645871</v>
+        <v>21.25041561739336</v>
       </c>
       <c r="O22">
-        <v>21.33899278359148</v>
+        <v>30.10506372795281</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.95330654179321</v>
+        <v>13.33764687042588</v>
       </c>
       <c r="C23">
-        <v>8.399881785822178</v>
+        <v>5.296807562261279</v>
       </c>
       <c r="D23">
-        <v>12.66568212963833</v>
+        <v>14.90421865109436</v>
       </c>
       <c r="E23">
-        <v>12.19132306394943</v>
+        <v>15.92308130428443</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.090967625229798</v>
+        <v>3.687590979427643</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.322645591260707</v>
+        <v>9.185524049457237</v>
       </c>
       <c r="K23">
-        <v>14.44580669070806</v>
+        <v>12.47310680461906</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.98153560145113</v>
+        <v>17.95338321666064</v>
       </c>
       <c r="N23">
-        <v>12.92491806494838</v>
+        <v>21.27496454646409</v>
       </c>
       <c r="O23">
-        <v>21.2333367287268</v>
+        <v>30.11585351173218</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.64876070024212</v>
+        <v>12.98020810241874</v>
       </c>
       <c r="C24">
-        <v>7.797190297878872</v>
+        <v>5.068851714174453</v>
       </c>
       <c r="D24">
-        <v>12.03126562371754</v>
+        <v>14.82488866423237</v>
       </c>
       <c r="E24">
-        <v>11.70466361172717</v>
+        <v>15.88832499063142</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.100347290066177</v>
+        <v>3.69076346980402</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.321636957680441</v>
+        <v>9.2071226428143</v>
       </c>
       <c r="K24">
-        <v>13.37296038863118</v>
+        <v>12.23809929925257</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.1844158580858</v>
+        <v>17.8444534106355</v>
       </c>
       <c r="N24">
-        <v>13.28945497081356</v>
+        <v>21.37111371860704</v>
       </c>
       <c r="O24">
-        <v>20.86521819598379</v>
+        <v>30.16655376815601</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.12943752737221</v>
+        <v>12.59319928433742</v>
       </c>
       <c r="C25">
-        <v>7.097418677562793</v>
+        <v>4.813602128147183</v>
       </c>
       <c r="D25">
-        <v>11.34060161951641</v>
+        <v>14.74980499164432</v>
       </c>
       <c r="E25">
-        <v>11.18821376207158</v>
+        <v>15.86139627178756</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.110783708072867</v>
+        <v>3.694442583188372</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.328552124846975</v>
+        <v>9.233699259030539</v>
       </c>
       <c r="K25">
-        <v>12.12473930244887</v>
+        <v>11.98803313365354</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.30289871478037</v>
+        <v>17.73776940722069</v>
       </c>
       <c r="N25">
-        <v>13.69210567788332</v>
+        <v>21.48164592577439</v>
       </c>
       <c r="O25">
-        <v>20.53301472840947</v>
+        <v>30.24221483871366</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_121/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_121/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.30925152266897</v>
+        <v>12.91184615107765</v>
       </c>
       <c r="C2">
-        <v>4.619119882430722</v>
+        <v>6.538738037100524</v>
       </c>
       <c r="D2">
-        <v>14.70376576710663</v>
+        <v>10.82961704331132</v>
       </c>
       <c r="E2">
-        <v>15.85073642682584</v>
+        <v>10.8170774352567</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.697375012375164</v>
+        <v>2.118776469511878</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.256101217402774</v>
+        <v>5.340114641342822</v>
       </c>
       <c r="K2">
-        <v>11.80808497689487</v>
+        <v>11.12564895800449</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.66885209425302</v>
+        <v>12.63901321914831</v>
       </c>
       <c r="N2">
-        <v>21.56895207622065</v>
+        <v>13.99760923242956</v>
       </c>
       <c r="O2">
-        <v>30.31591179523271</v>
+        <v>20.3403714466217</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.11863447757177</v>
+        <v>12.06141374540545</v>
       </c>
       <c r="C3">
-        <v>4.484124296070935</v>
+        <v>6.132783024939837</v>
       </c>
       <c r="D3">
-        <v>14.67842918646962</v>
+        <v>10.48365757905109</v>
       </c>
       <c r="E3">
-        <v>15.8492640051754</v>
+        <v>10.57228181158117</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.699502997551511</v>
+        <v>2.124401348866339</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.273057767558052</v>
+        <v>5.351792534908498</v>
       </c>
       <c r="K3">
-        <v>11.68935476586168</v>
+        <v>10.39785176263141</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.62830702185967</v>
+        <v>12.18232255787335</v>
       </c>
       <c r="N3">
-        <v>21.63184264429387</v>
+        <v>14.21072662066717</v>
       </c>
       <c r="O3">
-        <v>30.37704646167532</v>
+        <v>20.24018371573164</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.00289882713732</v>
+        <v>11.55370229629572</v>
       </c>
       <c r="C4">
-        <v>4.399996697996782</v>
+        <v>5.870014750317985</v>
       </c>
       <c r="D4">
-        <v>14.66579340310728</v>
+        <v>10.27212385073053</v>
       </c>
       <c r="E4">
-        <v>15.85120568102731</v>
+        <v>10.42566020621797</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.700879367240625</v>
+        <v>2.127962516471238</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.28434674678571</v>
+        <v>5.360796404521134</v>
       </c>
       <c r="K4">
-        <v>11.61824732604389</v>
+        <v>9.925752204704443</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.60649692742561</v>
+        <v>11.89956725367252</v>
       </c>
       <c r="N4">
-        <v>21.67230300085211</v>
+        <v>14.34471685772933</v>
       </c>
       <c r="O4">
-        <v>30.42009072201669</v>
+        <v>20.19293508105012</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.95612569838595</v>
+        <v>11.3413929149922</v>
       </c>
       <c r="C5">
-        <v>4.365456884039327</v>
+        <v>5.75954007703896</v>
       </c>
       <c r="D5">
-        <v>14.66138268825014</v>
+        <v>10.18626268016594</v>
       </c>
       <c r="E5">
-        <v>15.85271370438966</v>
+        <v>10.36689331396309</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.701457851525846</v>
+        <v>2.129441413455041</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.289168109384196</v>
+        <v>5.364917840609571</v>
       </c>
       <c r="K5">
-        <v>11.5897518735747</v>
+        <v>9.726997274404182</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.59839145430606</v>
+        <v>11.78391976470528</v>
       </c>
       <c r="N5">
-        <v>21.68925618174426</v>
+        <v>14.40012678031766</v>
       </c>
       <c r="O5">
-        <v>30.4390146259516</v>
+        <v>20.17715972725735</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.94838442823603</v>
+        <v>11.30581669453785</v>
       </c>
       <c r="C6">
-        <v>4.359707707205783</v>
+        <v>5.740991036779562</v>
       </c>
       <c r="D6">
-        <v>14.66069499862347</v>
+        <v>10.17202962390841</v>
       </c>
       <c r="E6">
-        <v>15.85300743043429</v>
+        <v>10.35719608651079</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.701554973198578</v>
+        <v>2.129688674704357</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.289982051361331</v>
+        <v>5.365629267097435</v>
       </c>
       <c r="K6">
-        <v>11.58505017303692</v>
+        <v>9.693608732794088</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.59709297791229</v>
+        <v>11.76469625171072</v>
       </c>
       <c r="N6">
-        <v>21.69209938151137</v>
+        <v>14.40937690315511</v>
       </c>
       <c r="O6">
-        <v>30.44224039895174</v>
+        <v>20.17474711178922</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.00226636695273</v>
+        <v>11.55086073603402</v>
       </c>
       <c r="C7">
-        <v>4.399531848422387</v>
+        <v>5.868538585872769</v>
       </c>
       <c r="D7">
-        <v>14.66573092381919</v>
+        <v>10.27096435807959</v>
       </c>
       <c r="E7">
-        <v>15.85122311522879</v>
+        <v>10.42486360319803</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.700887097535752</v>
+        <v>2.127982348405135</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.28441087405602</v>
+        <v>5.360850167764683</v>
       </c>
       <c r="K7">
-        <v>11.61786103766707</v>
+        <v>9.923097551677838</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.60638443832808</v>
+        <v>11.89800906953449</v>
       </c>
       <c r="N7">
-        <v>21.67252975193312</v>
+        <v>14.3454608392056</v>
       </c>
       <c r="O7">
-        <v>30.4203403392287</v>
+        <v>20.19270838946353</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.24329348109437</v>
+        <v>12.61212928548234</v>
       </c>
       <c r="C8">
-        <v>4.572862398599169</v>
+        <v>6.4015684649469</v>
       </c>
       <c r="D8">
-        <v>14.69442601375887</v>
+        <v>10.71021453919208</v>
       </c>
       <c r="E8">
-        <v>15.84963890352749</v>
+        <v>10.73194121627581</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.698094293062584</v>
+        <v>2.120694035033839</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.261765894070566</v>
+        <v>5.343755242911655</v>
       </c>
       <c r="K8">
-        <v>11.76679310947331</v>
+        <v>10.87992327728787</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.65423608231443</v>
+        <v>12.48212878259589</v>
       </c>
       <c r="N8">
-        <v>21.59025450491248</v>
+        <v>14.07045326282324</v>
       </c>
       <c r="O8">
-        <v>30.33584692831791</v>
+        <v>20.30280124534544</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.72356273041073</v>
+        <v>14.65643055800289</v>
       </c>
       <c r="C9">
-        <v>4.900708598538513</v>
+        <v>7.339845178149304</v>
       </c>
       <c r="D9">
-        <v>14.77367523751295</v>
+        <v>11.57385766673017</v>
       </c>
       <c r="E9">
-        <v>15.86904826220406</v>
+        <v>11.36089440665353</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.693168708916029</v>
+        <v>2.10722245088219</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.224307603218424</v>
+        <v>5.325190806194496</v>
       </c>
       <c r="K9">
-        <v>12.07170246644606</v>
+        <v>12.55752421233849</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.77223100685065</v>
+        <v>13.60243259883669</v>
       </c>
       <c r="N9">
-        <v>21.44349684025075</v>
+        <v>13.55512877119296</v>
       </c>
       <c r="O9">
-        <v>30.2139303296796</v>
+        <v>20.63658408347867</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.07744209027509</v>
+        <v>16.01155289242306</v>
       </c>
       <c r="C10">
-        <v>5.13152496649493</v>
+        <v>7.964643908066694</v>
       </c>
       <c r="D10">
-        <v>14.84560699936539</v>
+        <v>12.20408066982941</v>
       </c>
       <c r="E10">
-        <v>15.89693206832682</v>
+        <v>11.8361633613619</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.689882261876185</v>
+        <v>2.09777802201645</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.201002854024679</v>
+        <v>5.32126078201131</v>
       </c>
       <c r="K10">
-        <v>12.30167349613993</v>
+        <v>13.67122717025743</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.87318509577864</v>
+        <v>14.40262990643362</v>
       </c>
       <c r="N10">
-        <v>21.34448245098642</v>
+        <v>13.18981209215766</v>
       </c>
       <c r="O10">
-        <v>30.15114015257484</v>
+        <v>20.9598553702556</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.23791015090705</v>
+        <v>16.59694759333239</v>
       </c>
       <c r="C11">
-        <v>5.23385188481134</v>
+        <v>8.235098308255042</v>
       </c>
       <c r="D11">
-        <v>14.88123116317996</v>
+        <v>12.48886910983093</v>
       </c>
       <c r="E11">
-        <v>15.91254674226701</v>
+        <v>12.05463667840177</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.688458582920821</v>
+        <v>2.093568732679629</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.191312080657237</v>
+        <v>5.32171683617465</v>
       </c>
       <c r="K11">
-        <v>12.40718018792387</v>
+        <v>14.15265381517722</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.92209737746112</v>
+        <v>14.7604384202917</v>
       </c>
       <c r="N11">
-        <v>21.30133341493071</v>
+        <v>13.02620912794467</v>
       </c>
       <c r="O11">
-        <v>30.12840686207031</v>
+        <v>21.12511680263557</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.2985417638724</v>
+        <v>16.8142229758951</v>
       </c>
       <c r="C12">
-        <v>5.27218000228672</v>
+        <v>8.335555806243743</v>
       </c>
       <c r="D12">
-        <v>14.89513108272256</v>
+        <v>12.59637076394228</v>
       </c>
       <c r="E12">
-        <v>15.91887793106461</v>
+        <v>12.13764934077063</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.687929673850359</v>
+        <v>2.091986313401005</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.187773050854945</v>
+        <v>5.322224012650032</v>
       </c>
       <c r="K12">
-        <v>12.44722704719889</v>
+        <v>14.33138454154964</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.94103844145323</v>
+        <v>14.89495683187855</v>
       </c>
       <c r="N12">
-        <v>21.28526494565989</v>
+        <v>12.96460342634328</v>
       </c>
       <c r="O12">
-        <v>30.12063762340724</v>
+        <v>21.19041245717975</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.2854905644211</v>
+        <v>16.76762349624799</v>
       </c>
       <c r="C13">
-        <v>5.263944617832216</v>
+        <v>8.3140071641233</v>
       </c>
       <c r="D13">
-        <v>14.8921193843255</v>
+        <v>12.57323450154997</v>
       </c>
       <c r="E13">
-        <v>15.91749584760573</v>
+        <v>12.11975920903654</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.688043130730507</v>
+        <v>2.092326618271562</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.18852943805409</v>
+        <v>5.322099712677712</v>
       </c>
       <c r="K13">
-        <v>12.43859861471685</v>
+        <v>14.2930498668022</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.93694068176374</v>
+        <v>14.86603044606867</v>
       </c>
       <c r="N13">
-        <v>21.28871353649425</v>
+        <v>12.97785626428756</v>
       </c>
       <c r="O13">
-        <v>30.12227352414654</v>
+        <v>21.17622760914547</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.24290137647485</v>
+        <v>16.61491078650881</v>
       </c>
       <c r="C14">
-        <v>5.237013793287423</v>
+        <v>8.243402102379818</v>
       </c>
       <c r="D14">
-        <v>14.88236654927686</v>
+        <v>12.49772052647934</v>
       </c>
       <c r="E14">
-        <v>15.91305924963395</v>
+        <v>12.06146077383404</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.688414864979244</v>
+        <v>2.093438320452464</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.191018305721203</v>
+        <v>5.321751788671635</v>
       </c>
       <c r="K14">
-        <v>12.41047318426135</v>
+        <v>14.16742945654552</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.92364733453224</v>
+        <v>14.77152531029052</v>
       </c>
       <c r="N14">
-        <v>21.3000060245677</v>
+        <v>13.02113397141921</v>
       </c>
       <c r="O14">
-        <v>30.12775085532056</v>
+        <v>21.13043376010527</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.2167950455201</v>
+        <v>16.52079870037101</v>
       </c>
       <c r="C15">
-        <v>5.220462054031102</v>
+        <v>8.199900233054112</v>
       </c>
       <c r="D15">
-        <v>14.87644579572056</v>
+        <v>12.45141974873002</v>
       </c>
       <c r="E15">
-        <v>15.91039607575967</v>
+        <v>12.02578673152983</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.688643890699238</v>
+        <v>2.094120744065875</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.192559815400879</v>
+        <v>5.321582594820172</v>
       </c>
       <c r="K15">
-        <v>12.39325673923748</v>
+        <v>14.0900192597717</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.91555902376377</v>
+        <v>14.71350889234945</v>
       </c>
       <c r="N15">
-        <v>21.30695827707243</v>
+        <v>13.04768730748611</v>
       </c>
       <c r="O15">
-        <v>30.13121521355064</v>
+        <v>21.10274008593409</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.06693958616639</v>
+        <v>15.97267651908865</v>
       </c>
       <c r="C16">
-        <v>5.124780674130807</v>
+        <v>7.946693827611995</v>
       </c>
       <c r="D16">
-        <v>14.84333664519083</v>
+        <v>12.18542470159824</v>
       </c>
       <c r="E16">
-        <v>15.8959703178593</v>
+        <v>11.82192733482273</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.689976733806937</v>
+        <v>2.098054779038349</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.201654468492604</v>
+        <v>5.321277126715021</v>
       </c>
       <c r="K16">
-        <v>12.29479337712617</v>
+        <v>13.63926177531257</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.87004779173128</v>
+        <v>14.37911389156186</v>
       </c>
       <c r="N16">
-        <v>21.34734034243642</v>
+        <v>13.20055383737181</v>
       </c>
       <c r="O16">
-        <v>30.15274323615696</v>
+        <v>20.94942980422084</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.97483299972503</v>
+        <v>15.62851221066051</v>
       </c>
       <c r="C17">
-        <v>5.065371555219518</v>
+        <v>7.787847957691333</v>
       </c>
       <c r="D17">
-        <v>14.82376338074251</v>
+        <v>12.02170580075045</v>
       </c>
       <c r="E17">
-        <v>15.88786897367999</v>
+        <v>11.69741402909704</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.690812625451269</v>
+        <v>2.100489804709143</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.207466777347706</v>
+        <v>5.321672662429597</v>
       </c>
       <c r="K17">
-        <v>12.23459308392763</v>
+        <v>13.35631543702351</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.84288600291723</v>
+        <v>14.17231936508193</v>
       </c>
       <c r="N17">
-        <v>21.37259752012362</v>
+        <v>13.29497678646089</v>
       </c>
       <c r="O17">
-        <v>30.16744403205575</v>
+        <v>20.8601111667026</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.92181087922255</v>
+        <v>15.42763068028609</v>
       </c>
       <c r="C18">
-        <v>5.030951389779147</v>
+        <v>7.695186386210698</v>
       </c>
       <c r="D18">
-        <v>14.81277899396481</v>
+        <v>11.9273631890266</v>
       </c>
       <c r="E18">
-        <v>15.8834853061184</v>
+        <v>11.62601339280889</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.691300126353087</v>
+        <v>2.101898620363338</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.210895598501157</v>
+        <v>5.322110624983278</v>
       </c>
       <c r="K18">
-        <v>12.20005345127023</v>
+        <v>13.19119686336811</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.82754515247961</v>
+        <v>14.05279649447958</v>
       </c>
       <c r="N18">
-        <v>21.38730303319569</v>
+        <v>13.34953082369629</v>
       </c>
       <c r="O18">
-        <v>30.17644827169239</v>
+        <v>20.81044524350863</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.90385267160818</v>
+        <v>15.35911093940059</v>
       </c>
       <c r="C19">
-        <v>5.019255615991439</v>
+        <v>7.663589276903163</v>
       </c>
       <c r="D19">
-        <v>14.80910708612159</v>
+        <v>11.89539246805206</v>
       </c>
       <c r="E19">
-        <v>15.88204856583559</v>
+        <v>11.60187694996086</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.691466341210546</v>
+        <v>2.102377067044981</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.212071272532388</v>
+        <v>5.322294707655898</v>
       </c>
       <c r="K19">
-        <v>12.18837474727571</v>
+        <v>13.13488115327279</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.82239973298724</v>
+        <v>14.01223128329344</v>
       </c>
       <c r="N19">
-        <v>21.39231271580586</v>
+        <v>13.36804458969853</v>
       </c>
       <c r="O19">
-        <v>30.17959116355409</v>
+        <v>20.7939195328871</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.98464298873331</v>
+        <v>15.66545159333681</v>
       </c>
       <c r="C20">
-        <v>5.071721867560462</v>
+        <v>7.804891520311237</v>
       </c>
       <c r="D20">
-        <v>14.82581872027248</v>
+        <v>12.03915268501063</v>
       </c>
       <c r="E20">
-        <v>15.88870283087632</v>
+        <v>11.71064665982576</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.690722948431702</v>
+        <v>2.100229744680327</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.206839176068565</v>
+        <v>5.321608691309066</v>
       </c>
       <c r="K20">
-        <v>12.24099285943387</v>
+        <v>13.38668105118011</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.8457483219002</v>
+        <v>14.19439369423962</v>
       </c>
       <c r="N20">
-        <v>21.36989040991349</v>
+        <v>13.28490017415707</v>
       </c>
       <c r="O20">
-        <v>30.16582230773517</v>
+        <v>20.86944182724381</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.25541496398582</v>
+        <v>16.65988511612187</v>
       </c>
       <c r="C21">
-        <v>5.244935724671606</v>
+        <v>8.264193457178473</v>
       </c>
       <c r="D21">
-        <v>14.8852201332244</v>
+        <v>12.51991056185501</v>
       </c>
       <c r="E21">
-        <v>15.91435106127001</v>
+        <v>12.0785771251248</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.688305401007684</v>
+        <v>2.09311148123194</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.190283721378142</v>
+        <v>5.321844807657022</v>
       </c>
       <c r="K21">
-        <v>12.41873203333739</v>
+        <v>14.20442383503304</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.92754062722563</v>
+        <v>14.79931083047179</v>
       </c>
       <c r="N21">
-        <v>21.29668179721735</v>
+        <v>13.00841303168987</v>
       </c>
       <c r="O21">
-        <v>30.12611924373964</v>
+        <v>21.14381008408841</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.4315717826439</v>
+        <v>17.28418559500325</v>
       </c>
       <c r="C22">
-        <v>5.355673444530081</v>
+        <v>8.552975543466152</v>
       </c>
       <c r="D22">
-        <v>14.9264273002055</v>
+        <v>12.83209993893514</v>
       </c>
       <c r="E22">
-        <v>15.93354986388006</v>
+        <v>12.32066562476886</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.686784865995851</v>
+        <v>2.088526091817429</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.180225197227944</v>
+        <v>5.323954633251489</v>
       </c>
       <c r="K22">
-        <v>12.53542565945692</v>
+        <v>14.71805291365071</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.98343384674026</v>
+        <v>15.18894349495077</v>
       </c>
       <c r="N22">
-        <v>21.25041561739336</v>
+        <v>12.82972480645872</v>
       </c>
       <c r="O22">
-        <v>30.10506372795281</v>
+        <v>21.33899278359145</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.33764687042588</v>
+        <v>16.95330654179322</v>
       </c>
       <c r="C23">
-        <v>5.296807562261279</v>
+        <v>8.39988178582224</v>
       </c>
       <c r="D23">
-        <v>14.90421865109436</v>
+        <v>12.66568212963832</v>
       </c>
       <c r="E23">
-        <v>15.92308130428443</v>
+        <v>12.1913230639495</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.687590979427643</v>
+        <v>2.090967625230066</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.185524049457237</v>
+        <v>5.322645591260707</v>
       </c>
       <c r="K23">
-        <v>12.47310680461906</v>
+        <v>14.44580669070804</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.95338321666064</v>
+        <v>14.98153560145116</v>
       </c>
       <c r="N23">
-        <v>21.27496454646409</v>
+        <v>12.92491806494835</v>
       </c>
       <c r="O23">
-        <v>30.11585351173218</v>
+        <v>21.23333672872678</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.98020810241874</v>
+        <v>15.64876070024215</v>
       </c>
       <c r="C24">
-        <v>5.068851714174453</v>
+        <v>7.797190297878615</v>
       </c>
       <c r="D24">
-        <v>14.82488866423237</v>
+        <v>12.03126562371761</v>
       </c>
       <c r="E24">
-        <v>15.88832499063142</v>
+        <v>11.70466361172721</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.69076346980402</v>
+        <v>2.100347290066044</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.2071226428143</v>
+        <v>5.321636957680472</v>
       </c>
       <c r="K24">
-        <v>12.23809929925257</v>
+        <v>13.37296038863114</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.8444534106355</v>
+        <v>14.18441585808584</v>
       </c>
       <c r="N24">
-        <v>21.37111371860704</v>
+        <v>13.28945497081349</v>
       </c>
       <c r="O24">
-        <v>30.16655376815601</v>
+        <v>20.86521819598376</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.59319928433742</v>
+        <v>14.12943752737225</v>
       </c>
       <c r="C25">
-        <v>4.813602128147183</v>
+        <v>7.097418677562914</v>
       </c>
       <c r="D25">
-        <v>14.74980499164432</v>
+        <v>11.34060161951649</v>
       </c>
       <c r="E25">
-        <v>15.86139627178756</v>
+        <v>11.18821376207159</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.694442583188372</v>
+        <v>2.110783708072999</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.233699259030539</v>
+        <v>5.328552124846896</v>
       </c>
       <c r="K25">
-        <v>11.98803313365354</v>
+        <v>12.12473930244892</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.73776940722069</v>
+        <v>13.30289871478034</v>
       </c>
       <c r="N25">
-        <v>21.48164592577439</v>
+        <v>13.69210567788332</v>
       </c>
       <c r="O25">
-        <v>30.24221483871366</v>
+        <v>20.53301472840938</v>
       </c>
     </row>
   </sheetData>
